--- a/Profiles/配列.xlsx
+++ b/Profiles/配列.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamaguchisouta/RBC/Dev_ATEM-Controller/Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714C852-6BBA-4E4F-8C3C-A17D3D215A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE174C-F71D-1C4D-80AC-D1EA7C548377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="1200" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{86AB5C92-71B4-9F4A-94AA-B2EEC83C878C}"/>
   </bookViews>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>

--- a/Profiles/配列.xlsx
+++ b/Profiles/配列.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamaguchisouta/RBC/Dev_ATEM-Controller/Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE174C-F71D-1C4D-80AC-D1EA7C548377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775115D-FB92-8B48-86BE-3167089D105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1200" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{86AB5C92-71B4-9F4A-94AA-B2EEC83C878C}"/>
+    <workbookView xWindow="20720" yWindow="3020" windowWidth="28300" windowHeight="17440" activeTab="2" xr2:uid="{86AB5C92-71B4-9F4A-94AA-B2EEC83C878C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2022_SongGenics_SummerLive" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
   <si>
     <t>4A</t>
     <phoneticPr fontId="1"/>
@@ -342,6 +343,101 @@
   </si>
   <si>
     <t>ON AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input5</t>
+  </si>
+  <si>
+    <t>input5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input6</t>
+  </si>
+  <si>
+    <t>input4</t>
+  </si>
+  <si>
+    <t>input4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input7</t>
+  </si>
+  <si>
+    <t>input7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input8</t>
+  </si>
+  <si>
+    <t>input8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>Blk</t>
+  </si>
+  <si>
+    <t>Color1</t>
+  </si>
+  <si>
+    <t>Color2</t>
+  </si>
+  <si>
+    <t>ColorBars</t>
+  </si>
+  <si>
+    <t>input1</t>
+  </si>
+  <si>
+    <t>input1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input2</t>
+  </si>
+  <si>
+    <t>input3</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
   </si>
 </sst>
 </file>
@@ -439,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1282,195 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,6 +1911,135 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1955,7 +2369,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -2519,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325BCFAD-08CF-6041-B676-A3A0860CFA73}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -3062,4 +3476,533 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E10AF64-B9FD-CD41-901E-A703B8E8F2DD}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:15" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="37">
+        <v>60</v>
+      </c>
+      <c r="H2" s="37">
+        <v>61</v>
+      </c>
+      <c r="I2" s="122">
+        <v>62</v>
+      </c>
+      <c r="J2" s="177">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="178"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" thickTop="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="144">
+        <v>51</v>
+      </c>
+      <c r="C4" s="145">
+        <v>52</v>
+      </c>
+      <c r="D4" s="145">
+        <v>53</v>
+      </c>
+      <c r="E4" s="146">
+        <v>54</v>
+      </c>
+      <c r="F4" s="146">
+        <v>55</v>
+      </c>
+      <c r="G4" s="146">
+        <v>56</v>
+      </c>
+      <c r="H4" s="146">
+        <v>57</v>
+      </c>
+      <c r="I4" s="147">
+        <v>58</v>
+      </c>
+      <c r="J4" s="96">
+        <v>59</v>
+      </c>
+      <c r="L4" s="29">
+        <v>5</v>
+      </c>
+      <c r="M4" s="30">
+        <v>7</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="149" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="31">
+        <v>15</v>
+      </c>
+      <c r="M5" s="30">
+        <v>17</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="160">
+        <v>47</v>
+      </c>
+      <c r="C6" s="161">
+        <v>48</v>
+      </c>
+      <c r="D6" s="161">
+        <v>49</v>
+      </c>
+      <c r="E6" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="32">
+        <v>9</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="164" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="166" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="167" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="33">
+        <v>22</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="B8" s="155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="156">
+        <v>40</v>
+      </c>
+      <c r="F8" s="156">
+        <v>41</v>
+      </c>
+      <c r="G8" s="156">
+        <v>42</v>
+      </c>
+      <c r="H8" s="156">
+        <v>43</v>
+      </c>
+      <c r="I8" s="157">
+        <v>44</v>
+      </c>
+      <c r="J8" s="74">
+        <v>45</v>
+      </c>
+      <c r="L8" s="30">
+        <v>3</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="155">
+        <v>33</v>
+      </c>
+      <c r="C10" s="156">
+        <v>34</v>
+      </c>
+      <c r="D10" s="156">
+        <v>35</v>
+      </c>
+      <c r="E10" s="156">
+        <v>36</v>
+      </c>
+      <c r="F10" s="156">
+        <v>37</v>
+      </c>
+      <c r="G10" s="156">
+        <v>38</v>
+      </c>
+      <c r="H10" s="156">
+        <v>39</v>
+      </c>
+      <c r="I10" s="157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="75"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="155">
+        <v>29</v>
+      </c>
+      <c r="C12" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="157">
+        <v>30</v>
+      </c>
+      <c r="J12" s="51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="171"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="154">
+        <v>20</v>
+      </c>
+      <c r="D14" s="154">
+        <v>21</v>
+      </c>
+      <c r="E14" s="154">
+        <v>22</v>
+      </c>
+      <c r="F14" s="154">
+        <v>23</v>
+      </c>
+      <c r="G14" s="156">
+        <v>24</v>
+      </c>
+      <c r="H14" s="172">
+        <v>25</v>
+      </c>
+      <c r="I14" s="173">
+        <v>26</v>
+      </c>
+      <c r="J14" s="174">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="150"/>
+      <c r="H15" s="168" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="169" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="175" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="155">
+        <v>15</v>
+      </c>
+      <c r="C16" s="156">
+        <v>16</v>
+      </c>
+      <c r="D16" s="156">
+        <v>17</v>
+      </c>
+      <c r="E16" s="156">
+        <v>18</v>
+      </c>
+      <c r="F16" s="156">
+        <v>19</v>
+      </c>
+      <c r="G16" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="157" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="171"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="161" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="161" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="156">
+        <v>10</v>
+      </c>
+      <c r="H18" s="183">
+        <v>11</v>
+      </c>
+      <c r="I18" s="157">
+        <v>12</v>
+      </c>
+      <c r="J18" s="185">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="182" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="182" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="182" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="176"/>
+      <c r="H19" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="180"/>
+      <c r="J19" s="186" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>